--- a/stores.xlsx
+++ b/stores.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyburnett/Library/Mobile Documents/com~apple~CloudDocs/Desktop/X_12.18.2024/Education/Graduate/USF Grad/Classes/SP25/ISM6137_StatsDM/GRP_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F7C6FE2-FCF5-7842-B2FD-D0CCC81744B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D156B00-5657-2442-B0D5-0F64F3563D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21180" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{31DE3580-79D8-D549-87A7-38D9AAA4EE1F}"/>
+    <workbookView xWindow="41320" yWindow="680" windowWidth="27260" windowHeight="16460" xr2:uid="{31DE3580-79D8-D549-87A7-38D9AAA4EE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="stores" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stores!$A$1:$J$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -772,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4386D91C-840F-5143-AF02-D7754083D763}">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="K7" sqref="K7:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -793,7 +796,7 @@
     <col min="11" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +826,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>389</v>
       </c>
@@ -853,7 +856,7 @@
       </c>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2277</v>
       </c>
@@ -881,7 +884,7 @@
       </c>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>4259</v>
       </c>
@@ -909,7 +912,7 @@
       </c>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>6379</v>
       </c>
@@ -937,7 +940,7 @@
       </c>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>6431</v>
       </c>
@@ -967,7 +970,7 @@
       </c>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>13853</v>
       </c>
@@ -994,8 +997,12 @@
         <v>15787.391025999999</v>
       </c>
       <c r="J7"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K7" s="7">
+        <f>COUNTA(G:G)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>13859</v>
       </c>
@@ -1022,8 +1029,12 @@
         <v>15345.237179</v>
       </c>
       <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K8" s="7">
+        <f>COUNTA(A:A)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>15755</v>
       </c>
@@ -1052,8 +1063,12 @@
         <v>18291.429487000001</v>
       </c>
       <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K9" s="7">
+        <f>K7/K8</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>23327</v>
       </c>
@@ -1081,7 +1096,7 @@
       </c>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>23345</v>
       </c>
@@ -1109,7 +1124,7 @@
       </c>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>25001</v>
       </c>
@@ -1139,7 +1154,7 @@
       </c>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>26983</v>
       </c>
@@ -1167,7 +1182,7 @@
       </c>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>623</v>
       </c>
@@ -1195,7 +1210,7 @@
       </c>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>2541</v>
       </c>
@@ -1225,7 +1240,7 @@
       </c>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>4489</v>
       </c>
@@ -3030,6 +3045,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{4386D91C-840F-5143-AF02-D7754083D763}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
